--- a/electron/backend/data/NuData/SRS204_testplan_2025_1.9.xlsx
+++ b/electron/backend/data/NuData/SRS204_testplan_2025_1.9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2025\Körplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SoftwareDev\Trafikverket projekt\Trafikverket-GIT\electron\backend\data\NuData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872B969B-E16D-485C-B3FA-419D2CA4B03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF3DEFF-C2EF-4A7C-BF5C-7969AD0F5B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="2235" windowWidth="37635" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="2310" windowWidth="22905" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UT 2025" sheetId="7" r:id="rId1"/>
@@ -2885,9 +2885,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z790"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A686" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T791" sqref="T791"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="X2" s="4">
         <f t="shared" ref="X2:X64" ca="1" si="5">TODAY()-W2</f>
-        <v>-15</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="X3" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-120</v>
+        <v>-118</v>
       </c>
     </row>
     <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="X4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="Z4"/>
     </row>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="X5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-118</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="X6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="X7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-118</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="X8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="X9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-118</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="X10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="Y10" s="5" t="s">
         <v>613</v>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="X11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-118</v>
+        <v>-116</v>
       </c>
       <c r="Y11" s="5" t="s">
         <v>613</v>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="X12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-118</v>
+        <v>-116</v>
       </c>
       <c r="Y12" s="5" t="s">
         <v>613</v>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="X13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="X14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="X15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="Y15" s="5" t="s">
         <v>613</v>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="X16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="Y16" s="5" t="s">
         <v>613</v>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="X17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="Y17" s="5" t="s">
         <v>611</v>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="X18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="Y18" s="5" t="s">
         <v>613</v>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="X19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-121</v>
+        <v>-119</v>
       </c>
       <c r="Y19" s="5" t="s">
         <v>613</v>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="X20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="X21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="X22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="X23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="X24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-125</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="X25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="X26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-7</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="X27" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="Y27" s="5" t="s">
         <v>613</v>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="X28" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>613</v>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="X29" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="Y29" s="5" t="s">
         <v>613</v>
@@ -5228,7 +5228,7 @@
       </c>
       <c r="X30" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>613</v>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="X31" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="X32" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="Y32" s="5" t="s">
         <v>614</v>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="X33" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="Y33" s="5" t="s">
         <v>614</v>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="X34" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="X35" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="X36" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-115</v>
+        <v>-113</v>
       </c>
     </row>
     <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -5769,7 +5769,7 @@
       </c>
       <c r="X37" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-115</v>
+        <v>-113</v>
       </c>
     </row>
     <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="X38" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="X39" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-22</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="X40" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-22</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="X41" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="X42" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="X43" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="X44" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="Y44" s="5" t="s">
         <v>615</v>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="X45" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-125</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -6450,7 +6450,7 @@
       </c>
       <c r="X46" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-125</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="X47" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-125</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="X48" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-125</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -6669,7 +6669,7 @@
       </c>
       <c r="X49" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="X50" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-22</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -6821,7 +6821,7 @@
       </c>
       <c r="X51" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-22</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="X52" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="Y52" s="5" t="s">
         <v>613</v>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="X53" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="Y53" s="5" t="s">
         <v>613</v>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="X54" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-22</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="X55" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-22</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="X56" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="Y56" s="5" t="s">
         <v>612</v>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="X57" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="X58" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-35</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="X59" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="X60" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="Y60" s="5" t="s">
         <v>613</v>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="X61" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="Y61" s="5" t="s">
         <v>649</v>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="X62" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="Y62" s="5" t="s">
         <v>613</v>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="X63" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-35</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -7815,13 +7815,13 @@
       </c>
       <c r="X64" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>-34</v>
+        <v>-32</v>
       </c>
       <c r="Z64" s="5" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>132</v>
       </c>
@@ -7891,13 +7891,13 @@
       </c>
       <c r="X65" s="4">
         <f t="shared" ref="X65:X128" ca="1" si="16">TODAY()-W65</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y65" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>133</v>
       </c>
@@ -7967,13 +7967,13 @@
       </c>
       <c r="X66" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y66" s="5" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>134</v>
       </c>
@@ -8043,13 +8043,13 @@
       </c>
       <c r="X67" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y67" s="5" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>134</v>
       </c>
@@ -8119,13 +8119,13 @@
       </c>
       <c r="X68" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y68" s="5" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -8194,13 +8194,13 @@
       </c>
       <c r="X69" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="5" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -8269,10 +8269,10 @@
       </c>
       <c r="X70" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>164</v>
       </c>
@@ -8342,13 +8342,13 @@
       </c>
       <c r="X71" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y71" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>165</v>
       </c>
@@ -8418,7 +8418,7 @@
       </c>
       <c r="X72" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y72" s="5" t="s">
         <v>613</v>
@@ -8498,13 +8498,13 @@
       </c>
       <c r="X73" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-128</v>
+        <v>-126</v>
       </c>
       <c r="Y73" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>160</v>
       </c>
@@ -8580,10 +8580,10 @@
       </c>
       <c r="X74" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>127</v>
       </c>
@@ -8653,13 +8653,13 @@
       </c>
       <c r="X75" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y75" s="5" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>393</v>
       </c>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="X76" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -8805,10 +8805,10 @@
       </c>
       <c r="X77" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>130</v>
       </c>
@@ -8878,10 +8878,10 @@
       </c>
       <c r="X78" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -8954,10 +8954,10 @@
       </c>
       <c r="X79" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>110</v>
       </c>
@@ -9027,13 +9027,13 @@
       </c>
       <c r="X80" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y80" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -9102,10 +9102,10 @@
       </c>
       <c r="X81" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>117</v>
       </c>
@@ -9175,10 +9175,10 @@
       </c>
       <c r="X82" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>68</v>
       </c>
@@ -9248,10 +9248,10 @@
       </c>
       <c r="X83" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>72</v>
       </c>
@@ -9326,13 +9326,13 @@
       </c>
       <c r="X84" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y84" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>74</v>
       </c>
@@ -9402,13 +9402,13 @@
       </c>
       <c r="X85" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y85" s="5" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>107</v>
       </c>
@@ -9477,10 +9477,10 @@
       </c>
       <c r="X86" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>65</v>
       </c>
@@ -9550,13 +9550,13 @@
       </c>
       <c r="X87" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="Y87" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>67</v>
       </c>
@@ -9626,10 +9626,10 @@
       </c>
       <c r="X88" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>71</v>
       </c>
@@ -9699,10 +9699,10 @@
       </c>
       <c r="X89" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>76</v>
       </c>
@@ -9777,10 +9777,10 @@
       </c>
       <c r="X90" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>100</v>
       </c>
@@ -9855,10 +9855,10 @@
       </c>
       <c r="X91" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>102</v>
       </c>
@@ -9933,10 +9933,10 @@
       </c>
       <c r="X92" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>99</v>
       </c>
@@ -10002,10 +10002,10 @@
       </c>
       <c r="X93" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>89</v>
       </c>
@@ -10075,10 +10075,10 @@
       </c>
       <c r="X94" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>97</v>
       </c>
@@ -10148,10 +10148,10 @@
       </c>
       <c r="X95" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>98</v>
       </c>
@@ -10221,10 +10221,10 @@
       </c>
       <c r="X96" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>66</v>
       </c>
@@ -10294,13 +10294,13 @@
       </c>
       <c r="X97" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-30</v>
+        <v>-28</v>
       </c>
       <c r="Z97" s="5" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>75</v>
       </c>
@@ -10370,13 +10370,13 @@
       </c>
       <c r="X98" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-30</v>
+        <v>-28</v>
       </c>
       <c r="Y98" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>82</v>
       </c>
@@ -10446,13 +10446,13 @@
       </c>
       <c r="X99" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-30</v>
+        <v>-28</v>
       </c>
       <c r="Y99" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>83</v>
       </c>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="X100" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-30</v>
+        <v>-28</v>
       </c>
       <c r="Y100" s="5" t="s">
         <v>613</v>
@@ -10602,10 +10602,10 @@
       </c>
       <c r="X101" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>84</v>
       </c>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="X102" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-30</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -10752,10 +10752,10 @@
       </c>
       <c r="X103" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>85</v>
       </c>
@@ -10825,10 +10825,10 @@
       </c>
       <c r="X104" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>86</v>
       </c>
@@ -10898,10 +10898,10 @@
       </c>
       <c r="X105" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -10970,10 +10970,10 @@
       </c>
       <c r="X106" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>87</v>
       </c>
@@ -11043,10 +11043,10 @@
       </c>
       <c r="X107" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>88</v>
       </c>
@@ -11116,10 +11116,10 @@
       </c>
       <c r="X108" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -11192,13 +11192,13 @@
       </c>
       <c r="X109" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-32</v>
+        <v>-30</v>
       </c>
       <c r="Y109" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>90</v>
       </c>
@@ -11268,10 +11268,10 @@
       </c>
       <c r="X110" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -11344,13 +11344,13 @@
       </c>
       <c r="X111" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-32</v>
+        <v>-30</v>
       </c>
       <c r="Y111" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>91</v>
       </c>
@@ -11420,10 +11420,10 @@
       </c>
       <c r="X112" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>92</v>
       </c>
@@ -11493,10 +11493,10 @@
       </c>
       <c r="X113" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -11569,10 +11569,10 @@
       </c>
       <c r="X114" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -11645,7 +11645,7 @@
       </c>
       <c r="X115" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -11715,10 +11715,10 @@
       </c>
       <c r="X116" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-153</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>93</v>
       </c>
@@ -11788,13 +11788,13 @@
       </c>
       <c r="X117" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-31</v>
+        <v>-29</v>
       </c>
       <c r="Y117" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -11867,7 +11867,7 @@
       </c>
       <c r="X118" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-38</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -11942,10 +11942,10 @@
       </c>
       <c r="X119" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>94</v>
       </c>
@@ -12015,7 +12015,7 @@
       </c>
       <c r="X120" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-31</v>
+        <v>-29</v>
       </c>
       <c r="Y120" s="5" t="s">
         <v>613</v>
@@ -12095,10 +12095,10 @@
       </c>
       <c r="X121" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-154</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="X122" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y122" s="5" t="s">
         <v>613</v>
@@ -12253,10 +12253,10 @@
       </c>
       <c r="X123" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-168</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>95</v>
       </c>
@@ -12326,10 +12326,10 @@
       </c>
       <c r="X124" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -12407,7 +12407,7 @@
       </c>
       <c r="X125" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -12485,10 +12485,10 @@
       </c>
       <c r="X126" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-154</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>96</v>
       </c>
@@ -12558,10 +12558,10 @@
       </c>
       <c r="X127" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -12636,7 +12636,7 @@
       </c>
       <c r="X128" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -12713,10 +12713,10 @@
       </c>
       <c r="X129" s="4">
         <f t="shared" ref="X129:X192" ca="1" si="27">TODAY()-W129</f>
-        <v>-154</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>120</v>
       </c>
@@ -12788,10 +12788,10 @@
       </c>
       <c r="X130" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -12864,10 +12864,10 @@
       </c>
       <c r="X131" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>104</v>
       </c>
@@ -12937,13 +12937,13 @@
       </c>
       <c r="X132" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-32</v>
+        <v>-30</v>
       </c>
       <c r="Y132" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>105</v>
       </c>
@@ -13013,10 +13013,10 @@
       </c>
       <c r="X133" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-32</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>124</v>
       </c>
@@ -13086,10 +13086,10 @@
       </c>
       <c r="X134" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-32</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>108</v>
       </c>
@@ -13159,10 +13159,10 @@
       </c>
       <c r="X135" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-34</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -13235,7 +13235,7 @@
       </c>
       <c r="X136" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -13308,10 +13308,10 @@
       </c>
       <c r="X137" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -13384,7 +13384,7 @@
       </c>
       <c r="X138" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -13450,7 +13450,7 @@
       </c>
       <c r="X139" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-181</v>
+        <v>-179</v>
       </c>
       <c r="Y139" s="7" t="s">
         <v>622</v>
@@ -13528,7 +13528,7 @@
       </c>
       <c r="X140" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-157</v>
+        <v>-155</v>
       </c>
     </row>
     <row r="141" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -13594,7 +13594,7 @@
       </c>
       <c r="X141" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-191</v>
+        <v>-189</v>
       </c>
     </row>
     <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -13667,7 +13667,7 @@
       </c>
       <c r="X142" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-150</v>
+        <v>-148</v>
       </c>
     </row>
     <row r="143" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -13737,7 +13737,7 @@
       </c>
       <c r="X143" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-150</v>
+        <v>-148</v>
       </c>
     </row>
     <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -13807,10 +13807,10 @@
       </c>
       <c r="X144" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-139</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13883,10 +13883,10 @@
       </c>
       <c r="X145" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13961,7 +13961,7 @@
       </c>
       <c r="X146" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -14038,10 +14038,10 @@
       </c>
       <c r="X147" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-154</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="X148" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -14193,7 +14193,7 @@
       </c>
       <c r="X149" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-154</v>
+        <v>-152</v>
       </c>
     </row>
     <row r="150" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="X150" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-154</v>
+        <v>-152</v>
       </c>
     </row>
     <row r="151" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -14339,7 +14339,7 @@
       </c>
       <c r="X151" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-154</v>
+        <v>-152</v>
       </c>
     </row>
     <row r="152" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -14409,10 +14409,10 @@
       </c>
       <c r="X152" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-154</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -14487,7 +14487,7 @@
       </c>
       <c r="X153" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y153" s="5" t="s">
         <v>613</v>
@@ -14567,7 +14567,7 @@
       </c>
       <c r="X154" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-158</v>
+        <v>-156</v>
       </c>
       <c r="Y154" s="5" t="s">
         <v>613</v>
@@ -14640,13 +14640,13 @@
       </c>
       <c r="X155" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y155" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -14719,10 +14719,10 @@
       </c>
       <c r="X156" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -14800,7 +14800,7 @@
       </c>
       <c r="X157" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -14878,7 +14878,7 @@
       </c>
       <c r="X158" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-141</v>
+        <v>-139</v>
       </c>
     </row>
     <row r="159" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -14944,7 +14944,7 @@
       </c>
       <c r="X159" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-141</v>
+        <v>-139</v>
       </c>
     </row>
     <row r="160" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15010,10 +15010,10 @@
       </c>
       <c r="X160" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-143</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-141</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>112</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>45075</v>
       </c>
       <c r="P161" s="20">
-        <f t="shared" ref="P161:P192" si="30">O161+(365*M161)</f>
+        <f t="shared" ref="P161:P167" si="30">O161+(365*M161)</f>
         <v>45805</v>
       </c>
       <c r="S161" s="6" t="s">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="X161" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-34</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="162" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15157,7 +15157,7 @@
       </c>
       <c r="X162" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-141</v>
+        <v>-139</v>
       </c>
     </row>
     <row r="163" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15226,10 +15226,10 @@
       </c>
       <c r="X163" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-55</v>
-      </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>113</v>
       </c>
@@ -15295,10 +15295,10 @@
       </c>
       <c r="X164" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-34</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>78</v>
       </c>
@@ -15368,13 +15368,13 @@
       </c>
       <c r="X165" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-35</v>
+        <v>-33</v>
       </c>
       <c r="Y165" s="5" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>80</v>
       </c>
@@ -15440,7 +15440,7 @@
       </c>
       <c r="X166" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-37</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="167" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15503,13 +15503,13 @@
       </c>
       <c r="X167" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-49</v>
+        <v>-47</v>
       </c>
       <c r="Y167" s="5" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>163</v>
       </c>
@@ -15575,10 +15575,10 @@
       </c>
       <c r="X168" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-52</v>
-      </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -15656,7 +15656,7 @@
       </c>
       <c r="X169" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15731,7 +15731,7 @@
       </c>
       <c r="X170" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-139</v>
+        <v>-137</v>
       </c>
     </row>
     <row r="171" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -15806,7 +15806,7 @@
       </c>
       <c r="X171" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-157</v>
+        <v>-155</v>
       </c>
       <c r="Y171" s="5" t="s">
         <v>648</v>
@@ -15887,7 +15887,7 @@
       </c>
       <c r="X172" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-53</v>
+        <v>-51</v>
       </c>
       <c r="Y172" s="5" t="s">
         <v>613</v>
@@ -15968,7 +15968,7 @@
       </c>
       <c r="X173" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-155</v>
+        <v>-153</v>
       </c>
       <c r="Y173" s="5" t="s">
         <v>613</v>
@@ -16049,7 +16049,7 @@
       </c>
       <c r="X174" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-53</v>
+        <v>-51</v>
       </c>
       <c r="Y174" s="5" t="s">
         <v>613</v>
@@ -16129,7 +16129,7 @@
       </c>
       <c r="X175" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-155</v>
+        <v>-153</v>
       </c>
       <c r="Y175" s="5" t="s">
         <v>613</v>
@@ -16198,7 +16198,7 @@
       </c>
       <c r="X176" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-181</v>
+        <v>-179</v>
       </c>
     </row>
     <row r="177" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -16267,7 +16267,7 @@
       </c>
       <c r="X177" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-181</v>
+        <v>-179</v>
       </c>
     </row>
     <row r="178" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -16340,7 +16340,7 @@
       </c>
       <c r="X178" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-155</v>
+        <v>-153</v>
       </c>
       <c r="Y178" s="5" t="s">
         <v>613</v>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="X179" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y179" s="5" t="s">
         <v>638</v>
@@ -16499,7 +16499,7 @@
       </c>
       <c r="X180" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-53</v>
+        <v>-51</v>
       </c>
       <c r="Y180" s="5" t="s">
         <v>638</v>
@@ -16576,7 +16576,7 @@
       </c>
       <c r="X181" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-204</v>
+        <v>-202</v>
       </c>
       <c r="Y181" s="5" t="s">
         <v>638</v>
@@ -16655,7 +16655,7 @@
       </c>
       <c r="X182" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="183" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -16733,7 +16733,7 @@
       </c>
       <c r="X183" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="184" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="X184" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-53</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="185" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -16881,7 +16881,7 @@
       </c>
       <c r="X185" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-204</v>
+        <v>-202</v>
       </c>
     </row>
     <row r="186" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -16959,7 +16959,7 @@
       </c>
       <c r="X186" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -17033,7 +17033,7 @@
       </c>
       <c r="X187" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-55</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="188" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -17107,7 +17107,7 @@
       </c>
       <c r="X188" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-223</v>
+        <v>-221</v>
       </c>
     </row>
     <row r="189" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -17183,7 +17183,7 @@
       </c>
       <c r="X189" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -17253,7 +17253,7 @@
       </c>
       <c r="X190" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-155</v>
+        <v>-153</v>
       </c>
     </row>
     <row r="191" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -17330,7 +17330,7 @@
       </c>
       <c r="X191" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="X192" s="4">
         <f t="shared" ca="1" si="27"/>
-        <v>-46</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="193" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -17478,7 +17478,7 @@
       </c>
       <c r="X193" s="4">
         <f t="shared" ref="X193:X256" ca="1" si="36">TODAY()-W193</f>
-        <v>-205</v>
+        <v>-203</v>
       </c>
     </row>
     <row r="194" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="X194" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="195" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -17630,7 +17630,7 @@
       </c>
       <c r="X195" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-56</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="196" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="X196" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-56</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="197" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -17778,7 +17778,7 @@
       </c>
       <c r="X197" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-204</v>
+        <v>-202</v>
       </c>
     </row>
     <row r="198" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -17852,7 +17852,7 @@
       </c>
       <c r="X198" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-204</v>
+        <v>-202</v>
       </c>
     </row>
     <row r="199" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -17919,7 +17919,7 @@
       </c>
       <c r="X199" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-205</v>
+        <v>-203</v>
       </c>
       <c r="Y199" s="5" t="s">
         <v>678</v>
@@ -18003,7 +18003,7 @@
       </c>
       <c r="X200" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="201" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -18080,7 +18080,7 @@
       </c>
       <c r="X201" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-160</v>
+        <v>-158</v>
       </c>
     </row>
     <row r="202" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="X202" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="203" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -18238,7 +18238,7 @@
       </c>
       <c r="X203" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-160</v>
+        <v>-158</v>
       </c>
     </row>
     <row r="204" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -18319,7 +18319,7 @@
       </c>
       <c r="X204" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="205" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -18342,7 +18342,7 @@
         <v>186</v>
       </c>
       <c r="G205" s="1" t="str">
-        <f t="shared" ref="G205:G236" si="38">B205&amp;" - "&amp;C205&amp;" - "&amp;F205&amp;""</f>
+        <f t="shared" ref="G205:G213" si="38">B205&amp;" - "&amp;C205&amp;" - "&amp;F205&amp;""</f>
         <v>LDÖ - 350 - E (Vsg-Kp)</v>
       </c>
       <c r="H205" s="2">
@@ -18396,7 +18396,7 @@
       </c>
       <c r="X205" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-160</v>
+        <v>-158</v>
       </c>
     </row>
     <row r="206" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -18472,7 +18472,7 @@
       </c>
       <c r="X206" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="207" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -18548,7 +18548,7 @@
       </c>
       <c r="X207" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="208" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -18624,7 +18624,7 @@
       </c>
       <c r="X208" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -18697,7 +18697,7 @@
       </c>
       <c r="X209" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-160</v>
+        <v>-158</v>
       </c>
       <c r="Y209" s="5" t="s">
         <v>613</v>
@@ -18773,7 +18773,7 @@
       </c>
       <c r="X210" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-46</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="211" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="X211" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-46</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="212" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -18919,7 +18919,7 @@
       </c>
       <c r="X212" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-46</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="213" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -18992,7 +18992,7 @@
       </c>
       <c r="X213" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-48</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="214" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -19058,7 +19058,7 @@
       </c>
       <c r="X214" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-56</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="215" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -19130,7 +19130,7 @@
       </c>
       <c r="X215" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-51</v>
+        <v>-49</v>
       </c>
       <c r="Y215" s="5" t="s">
         <v>679</v>
@@ -19204,7 +19204,7 @@
       </c>
       <c r="X216" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-238</v>
+        <v>-236</v>
       </c>
       <c r="Y216" s="5" t="s">
         <v>679</v>
@@ -19273,13 +19273,13 @@
       </c>
       <c r="X217" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-176</v>
+        <v>-174</v>
       </c>
       <c r="Y217" s="5" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>218</v>
       </c>
@@ -19346,13 +19346,13 @@
       </c>
       <c r="X218" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-52</v>
+        <v>-50</v>
       </c>
       <c r="Y218" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>219</v>
       </c>
@@ -19419,13 +19419,13 @@
       </c>
       <c r="X219" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-52</v>
+        <v>-50</v>
       </c>
       <c r="Y219" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>220</v>
       </c>
@@ -19492,7 +19492,7 @@
       </c>
       <c r="X220" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-52</v>
+        <v>-50</v>
       </c>
       <c r="Y220" s="5" t="s">
         <v>613</v>
@@ -19565,7 +19565,7 @@
       </c>
       <c r="X221" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-50</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="222" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="X222" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-50</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="223" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -19705,7 +19705,7 @@
       </c>
       <c r="X223" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-51</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="224" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -19775,7 +19775,7 @@
       </c>
       <c r="X224" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-50</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="225" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -19848,7 +19848,7 @@
       </c>
       <c r="X225" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-111</v>
+        <v>-109</v>
       </c>
     </row>
     <row r="226" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -19914,7 +19914,7 @@
       </c>
       <c r="X226" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-55</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="227" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -19984,7 +19984,7 @@
       </c>
       <c r="X227" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-140</v>
+        <v>-138</v>
       </c>
       <c r="Y227" s="5" t="s">
         <v>613</v>
@@ -20053,7 +20053,7 @@
       </c>
       <c r="X228" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-141</v>
+        <v>-139</v>
       </c>
     </row>
     <row r="229" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -20123,7 +20123,7 @@
       </c>
       <c r="X229" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-170</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="230" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -20193,7 +20193,7 @@
       </c>
       <c r="X230" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-170</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="231" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -20265,7 +20265,7 @@
       </c>
       <c r="X231" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-53</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="232" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -20337,7 +20337,7 @@
       </c>
       <c r="X232" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-53</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="233" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -20388,7 +20388,7 @@
         <v>45366</v>
       </c>
       <c r="P233" s="20">
-        <f t="shared" ref="P233:P264" si="42">O233+(365*M233)</f>
+        <f t="shared" ref="P233:P234" si="42">O233+(365*M233)</f>
         <v>45731</v>
       </c>
       <c r="Q233" s="20">
@@ -20413,7 +20413,7 @@
       </c>
       <c r="X233" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="234" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -20486,7 +20486,7 @@
       </c>
       <c r="X234" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-170</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="235" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -20565,7 +20565,7 @@
       </c>
       <c r="X235" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y235" s="5" t="s">
         <v>640</v>
@@ -20643,7 +20643,7 @@
       </c>
       <c r="X236" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y236" s="5" t="s">
         <v>640</v>
@@ -20728,7 +20728,7 @@
       </c>
       <c r="X237" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y237" s="5" t="s">
         <v>640</v>
@@ -20807,7 +20807,7 @@
       </c>
       <c r="X238" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-157</v>
+        <v>-155</v>
       </c>
       <c r="Y238" s="5" t="s">
         <v>640</v>
@@ -20889,7 +20889,7 @@
       </c>
       <c r="X239" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y239" s="5" t="s">
         <v>640</v>
@@ -20968,7 +20968,7 @@
       </c>
       <c r="X240" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y240" s="5" t="s">
         <v>640</v>
@@ -21050,7 +21050,7 @@
       </c>
       <c r="X241" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y241" s="5" t="s">
         <v>640</v>
@@ -21129,7 +21129,7 @@
       </c>
       <c r="X242" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y242" s="5" t="s">
         <v>640</v>
@@ -21208,7 +21208,7 @@
       </c>
       <c r="X243" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-59</v>
+        <v>-57</v>
       </c>
       <c r="Y243" s="5" t="s">
         <v>640</v>
@@ -21287,7 +21287,7 @@
       </c>
       <c r="X244" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y244" s="5" t="s">
         <v>640</v>
@@ -21369,7 +21369,7 @@
       </c>
       <c r="X245" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y245" s="5" t="s">
         <v>640</v>
@@ -21448,7 +21448,7 @@
       </c>
       <c r="X246" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y246" s="5" t="s">
         <v>640</v>
@@ -21530,7 +21530,7 @@
       </c>
       <c r="X247" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y247" s="5" t="s">
         <v>640</v>
@@ -21609,7 +21609,7 @@
       </c>
       <c r="X248" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y248" s="5" t="s">
         <v>640</v>
@@ -21691,7 +21691,7 @@
       </c>
       <c r="X249" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y249" s="5" t="s">
         <v>640</v>
@@ -21770,7 +21770,7 @@
       </c>
       <c r="X250" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y250" s="5" t="s">
         <v>640</v>
@@ -21849,7 +21849,7 @@
       </c>
       <c r="X251" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="252" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -21922,7 +21922,7 @@
       </c>
       <c r="X252" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-170</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="253" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -22001,7 +22001,7 @@
       </c>
       <c r="X253" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y253" s="5" t="s">
         <v>640</v>
@@ -22080,7 +22080,7 @@
       </c>
       <c r="X254" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y254" s="5" t="s">
         <v>640</v>
@@ -22162,7 +22162,7 @@
       </c>
       <c r="X255" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y255" s="5" t="s">
         <v>640</v>
@@ -22241,7 +22241,7 @@
       </c>
       <c r="X256" s="4">
         <f t="shared" ca="1" si="36"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y256" s="5" t="s">
         <v>640</v>
@@ -22323,7 +22323,7 @@
       </c>
       <c r="X257" s="4">
         <f t="shared" ref="X257:X320" ca="1" si="48">TODAY()-W257</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y257" s="5" t="s">
         <v>640</v>
@@ -22402,7 +22402,7 @@
       </c>
       <c r="X258" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-157</v>
+        <v>-155</v>
       </c>
       <c r="Y258" s="5" t="s">
         <v>640</v>
@@ -22484,7 +22484,7 @@
       </c>
       <c r="X259" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y259" s="5" t="s">
         <v>640</v>
@@ -22563,7 +22563,7 @@
       </c>
       <c r="X260" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y260" s="5" t="s">
         <v>640</v>
@@ -22645,7 +22645,7 @@
       </c>
       <c r="X261" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y261" s="5" t="s">
         <v>640</v>
@@ -22724,7 +22724,7 @@
       </c>
       <c r="X262" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y262" s="5" t="s">
         <v>640</v>
@@ -22803,7 +22803,7 @@
       </c>
       <c r="X263" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y263" s="5" t="s">
         <v>640</v>
@@ -22882,7 +22882,7 @@
       </c>
       <c r="X264" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y264" s="5" t="s">
         <v>640</v>
@@ -22964,7 +22964,7 @@
       </c>
       <c r="X265" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y265" s="5" t="s">
         <v>640</v>
@@ -23043,7 +23043,7 @@
       </c>
       <c r="X266" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y266" s="5" t="s">
         <v>640</v>
@@ -23125,7 +23125,7 @@
       </c>
       <c r="X267" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y267" s="5" t="s">
         <v>640</v>
@@ -23204,7 +23204,7 @@
       </c>
       <c r="X268" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y268" s="5" t="s">
         <v>640</v>
@@ -23286,7 +23286,7 @@
       </c>
       <c r="X269" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y269" s="5" t="s">
         <v>640</v>
@@ -23365,7 +23365,7 @@
       </c>
       <c r="X270" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y270" s="5" t="s">
         <v>640</v>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="X271" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y271" s="5" t="s">
         <v>640</v>
@@ -23530,7 +23530,7 @@
       </c>
       <c r="X272" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-172</v>
+        <v>-170</v>
       </c>
       <c r="Y272" s="5" t="s">
         <v>640</v>
@@ -23612,7 +23612,7 @@
       </c>
       <c r="X273" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y273" s="5" t="s">
         <v>640</v>
@@ -23691,7 +23691,7 @@
       </c>
       <c r="X274" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-172</v>
+        <v>-170</v>
       </c>
       <c r="Y274" s="5" t="s">
         <v>640</v>
@@ -23770,7 +23770,7 @@
       </c>
       <c r="X275" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-59</v>
+        <v>-57</v>
       </c>
       <c r="Y275" s="5" t="s">
         <v>640</v>
@@ -23849,7 +23849,7 @@
       </c>
       <c r="X276" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="277" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -23930,7 +23930,7 @@
       </c>
       <c r="X277" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y277" s="5" t="s">
         <v>640</v>
@@ -24011,7 +24011,7 @@
       </c>
       <c r="X278" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-172</v>
+        <v>-170</v>
       </c>
       <c r="Y278" s="5" t="s">
         <v>640</v>
@@ -24093,7 +24093,7 @@
       </c>
       <c r="X279" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y279" s="5" t="s">
         <v>640</v>
@@ -24174,7 +24174,7 @@
       </c>
       <c r="X280" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-172</v>
+        <v>-170</v>
       </c>
       <c r="Y280" s="5" t="s">
         <v>640</v>
@@ -24253,7 +24253,7 @@
       </c>
       <c r="X281" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y281" s="5" t="s">
         <v>640</v>
@@ -24331,7 +24331,7 @@
       </c>
       <c r="X282" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="283" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -24397,7 +24397,7 @@
       </c>
       <c r="X283" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-214</v>
+        <v>-212</v>
       </c>
       <c r="Y283" s="5" t="s">
         <v>639</v>
@@ -24470,7 +24470,7 @@
       </c>
       <c r="X284" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-170</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="285" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -24542,7 +24542,7 @@
       </c>
       <c r="X285" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-53</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="286" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -24621,7 +24621,7 @@
       </c>
       <c r="X286" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y286" s="5" t="s">
         <v>640</v>
@@ -24700,7 +24700,7 @@
       </c>
       <c r="X287" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y287" s="5" t="s">
         <v>640</v>
@@ -24782,7 +24782,7 @@
       </c>
       <c r="X288" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y288" s="5" t="s">
         <v>640</v>
@@ -24861,7 +24861,7 @@
       </c>
       <c r="X289" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y289" s="5" t="s">
         <v>640</v>
@@ -24943,7 +24943,7 @@
       </c>
       <c r="X290" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y290" s="5" t="s">
         <v>640</v>
@@ -25022,7 +25022,7 @@
       </c>
       <c r="X291" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y291" s="5" t="s">
         <v>640</v>
@@ -25104,7 +25104,7 @@
       </c>
       <c r="X292" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y292" s="5" t="s">
         <v>640</v>
@@ -25183,7 +25183,7 @@
       </c>
       <c r="X293" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y293" s="5" t="s">
         <v>640</v>
@@ -25252,7 +25252,7 @@
       </c>
       <c r="X294" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-221</v>
+        <v>-219</v>
       </c>
     </row>
     <row r="295" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -25331,7 +25331,7 @@
       </c>
       <c r="X295" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y295" s="5" t="s">
         <v>640</v>
@@ -25410,7 +25410,7 @@
       </c>
       <c r="X296" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-157</v>
+        <v>-155</v>
       </c>
       <c r="Y296" s="5" t="s">
         <v>640</v>
@@ -25486,7 +25486,7 @@
       </c>
       <c r="X297" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-170</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="298" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -25565,7 +25565,7 @@
       </c>
       <c r="X298" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y298" s="5" t="s">
         <v>640</v>
@@ -25644,7 +25644,7 @@
       </c>
       <c r="X299" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-157</v>
+        <v>-155</v>
       </c>
       <c r="Y299" s="5" t="s">
         <v>640</v>
@@ -25717,7 +25717,7 @@
       </c>
       <c r="X300" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-157</v>
+        <v>-155</v>
       </c>
     </row>
     <row r="301" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -25787,7 +25787,7 @@
       </c>
       <c r="X301" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-157</v>
+        <v>-155</v>
       </c>
     </row>
     <row r="302" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -25866,7 +25866,7 @@
       </c>
       <c r="X302" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y302" s="5" t="s">
         <v>640</v>
@@ -25945,7 +25945,7 @@
       </c>
       <c r="X303" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-157</v>
+        <v>-155</v>
       </c>
       <c r="Y303" s="5" t="s">
         <v>640</v>
@@ -26021,7 +26021,7 @@
       </c>
       <c r="X304" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-170</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="305" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -26100,7 +26100,7 @@
       </c>
       <c r="X305" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y305" s="5" t="s">
         <v>640</v>
@@ -26179,7 +26179,7 @@
       </c>
       <c r="X306" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-157</v>
+        <v>-155</v>
       </c>
       <c r="Y306" s="5" t="s">
         <v>640</v>
@@ -26252,7 +26252,7 @@
       </c>
       <c r="X307" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-157</v>
+        <v>-155</v>
       </c>
     </row>
     <row r="308" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -26322,7 +26322,7 @@
       </c>
       <c r="X308" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-157</v>
+        <v>-155</v>
       </c>
     </row>
     <row r="309" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -26398,7 +26398,7 @@
       </c>
       <c r="X309" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="310" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -26474,7 +26474,7 @@
       </c>
       <c r="X310" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="311" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -26551,7 +26551,7 @@
       </c>
       <c r="X311" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y311" s="5" t="s">
         <v>640</v>
@@ -26630,7 +26630,7 @@
       </c>
       <c r="X312" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-157</v>
+        <v>-155</v>
       </c>
       <c r="Y312" s="5" t="s">
         <v>640</v>
@@ -26709,7 +26709,7 @@
       </c>
       <c r="X313" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="314" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -26788,7 +26788,7 @@
       </c>
       <c r="X314" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="315" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -26864,7 +26864,7 @@
       </c>
       <c r="X315" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="316" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -26943,7 +26943,7 @@
       </c>
       <c r="X316" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y316" s="5" t="s">
         <v>640</v>
@@ -27022,7 +27022,7 @@
       </c>
       <c r="X317" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-157</v>
+        <v>-155</v>
       </c>
       <c r="Y317" s="5" t="s">
         <v>640</v>
@@ -27100,7 +27100,7 @@
       </c>
       <c r="X318" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="319" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -27173,7 +27173,7 @@
       </c>
       <c r="X319" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>-170</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="320" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -27252,7 +27252,7 @@
       </c>
       <c r="X320" s="4">
         <f t="shared" ca="1" si="48"/>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="321" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -27328,7 +27328,7 @@
       </c>
       <c r="X321" s="4">
         <f t="shared" ref="X321:X384" ca="1" si="56">TODAY()-W321</f>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="322" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -27397,7 +27397,7 @@
       </c>
       <c r="X322" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-172</v>
+        <v>-170</v>
       </c>
       <c r="Y322" s="5" t="s">
         <v>642</v>
@@ -27469,7 +27469,7 @@
       </c>
       <c r="X323" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-172</v>
+        <v>-170</v>
       </c>
       <c r="Y323" s="5" t="s">
         <v>642</v>
@@ -27548,7 +27548,7 @@
       </c>
       <c r="X324" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="325" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -27624,7 +27624,7 @@
       </c>
       <c r="X325" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="326" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -27702,7 +27702,7 @@
       </c>
       <c r="X326" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="327" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -27776,7 +27776,7 @@
       </c>
       <c r="X327" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-205</v>
+        <v>-203</v>
       </c>
     </row>
     <row r="328" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -27852,7 +27852,7 @@
       </c>
       <c r="X328" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="329" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -27928,7 +27928,7 @@
       </c>
       <c r="X329" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="330" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -28004,7 +28004,7 @@
       </c>
       <c r="X330" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="331" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -28080,7 +28080,7 @@
       </c>
       <c r="X331" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="332" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -28146,7 +28146,7 @@
       </c>
       <c r="X332" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-221</v>
+        <v>-219</v>
       </c>
     </row>
     <row r="333" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -28219,7 +28219,7 @@
       </c>
       <c r="X333" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
     </row>
     <row r="334" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -28295,7 +28295,7 @@
       </c>
       <c r="X334" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="335" spans="1:25" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28368,7 +28368,7 @@
       </c>
       <c r="X335" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
     </row>
     <row r="336" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -28444,7 +28444,7 @@
       </c>
       <c r="X336" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="337" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -28520,7 +28520,7 @@
       </c>
       <c r="X337" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="338" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -28596,7 +28596,7 @@
       </c>
       <c r="X338" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="339" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -28665,7 +28665,7 @@
       </c>
       <c r="X339" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-190</v>
+        <v>-188</v>
       </c>
     </row>
     <row r="340" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -28734,7 +28734,7 @@
       </c>
       <c r="X340" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-190</v>
+        <v>-188</v>
       </c>
     </row>
     <row r="341" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -28803,7 +28803,7 @@
       </c>
       <c r="X341" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-190</v>
+        <v>-188</v>
       </c>
     </row>
     <row r="342" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -28879,7 +28879,7 @@
       </c>
       <c r="X342" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="343" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -28951,7 +28951,7 @@
       </c>
       <c r="X343" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-56</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="344" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -29027,7 +29027,7 @@
       </c>
       <c r="X344" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="345" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -29099,7 +29099,7 @@
       </c>
       <c r="X345" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-56</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="346" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -29175,7 +29175,7 @@
       </c>
       <c r="X346" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z346" s="7"/>
     </row>
@@ -29252,7 +29252,7 @@
       </c>
       <c r="X347" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="348" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -29328,7 +29328,7 @@
       </c>
       <c r="X348" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="349" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -29404,7 +29404,7 @@
       </c>
       <c r="X349" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="350" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -29470,7 +29470,7 @@
       </c>
       <c r="X350" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-185</v>
+        <v>-183</v>
       </c>
     </row>
     <row r="351" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -29546,7 +29546,7 @@
       </c>
       <c r="X351" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="352" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -29622,7 +29622,7 @@
       </c>
       <c r="X352" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="353" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -29698,7 +29698,7 @@
       </c>
       <c r="X353" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="354" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -29774,7 +29774,7 @@
       </c>
       <c r="X354" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="355" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -29852,7 +29852,7 @@
       </c>
       <c r="X355" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="356" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -29926,7 +29926,7 @@
       </c>
       <c r="X356" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-174</v>
+        <v>-172</v>
       </c>
     </row>
     <row r="357" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -30002,7 +30002,7 @@
       </c>
       <c r="X357" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="358" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -30078,7 +30078,7 @@
       </c>
       <c r="X358" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="359" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -30156,7 +30156,7 @@
       </c>
       <c r="X359" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="360" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -30230,7 +30230,7 @@
       </c>
       <c r="X360" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-205</v>
+        <v>-203</v>
       </c>
     </row>
     <row r="361" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -30306,7 +30306,7 @@
       </c>
       <c r="X361" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="362" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="X362" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="363" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -30457,7 +30457,7 @@
       </c>
       <c r="X363" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="364" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -30536,7 +30536,7 @@
       </c>
       <c r="X364" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="365" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -30617,7 +30617,7 @@
       </c>
       <c r="X365" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y365" s="5" t="s">
         <v>640</v>
@@ -30701,7 +30701,7 @@
       </c>
       <c r="X366" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y366" s="5" t="s">
         <v>640</v>
@@ -30783,7 +30783,7 @@
       </c>
       <c r="X367" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y367" s="5" t="s">
         <v>640</v>
@@ -30862,7 +30862,7 @@
       </c>
       <c r="X368" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y368" s="5" t="s">
         <v>640</v>
@@ -30938,7 +30938,7 @@
       </c>
       <c r="X369" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-59</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="370" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -31011,7 +31011,7 @@
       </c>
       <c r="X370" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-59</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="371" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -31090,7 +31090,7 @@
       </c>
       <c r="X371" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y371" s="5" t="s">
         <v>640</v>
@@ -31169,7 +31169,7 @@
       </c>
       <c r="X372" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y372" s="5" t="s">
         <v>640</v>
@@ -31251,7 +31251,7 @@
       </c>
       <c r="X373" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y373" s="5" t="s">
         <v>640</v>
@@ -31330,7 +31330,7 @@
       </c>
       <c r="X374" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y374" s="5" t="s">
         <v>640</v>
@@ -31412,7 +31412,7 @@
       </c>
       <c r="X375" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y375" s="5" t="s">
         <v>640</v>
@@ -31491,7 +31491,7 @@
       </c>
       <c r="X376" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y376" s="5" t="s">
         <v>640</v>
@@ -31567,7 +31567,7 @@
       </c>
       <c r="X377" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-59</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="378" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -31640,7 +31640,7 @@
       </c>
       <c r="X378" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-59</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="379" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -31719,7 +31719,7 @@
       </c>
       <c r="X379" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y379" s="5" t="s">
         <v>640</v>
@@ -31798,7 +31798,7 @@
       </c>
       <c r="X380" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y380" s="5" t="s">
         <v>640</v>
@@ -31879,7 +31879,7 @@
       </c>
       <c r="X381" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Y381" s="5" t="s">
         <v>613</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="X382" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-204</v>
+        <v>-202</v>
       </c>
       <c r="Y382" s="5" t="s">
         <v>613</v>
@@ -32025,7 +32025,7 @@
       </c>
       <c r="X383" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>-196</v>
+        <v>-194</v>
       </c>
     </row>
     <row r="384" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -32101,7 +32101,7 @@
       </c>
       <c r="X384" s="4">
         <f t="shared" ca="1" si="56"/>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="385" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -32134,7 +32134,7 @@
         <v>27.3</v>
       </c>
       <c r="J385" s="2">
-        <f t="shared" ref="J385:J448" si="61">I385-H385</f>
+        <f t="shared" ref="J385:J394" si="61">I385-H385</f>
         <v>17.298000000000002</v>
       </c>
       <c r="K385" s="3"/>
@@ -32176,8 +32176,8 @@
         <v>45791</v>
       </c>
       <c r="X385" s="4">
-        <f t="shared" ref="X385:X448" ca="1" si="64">TODAY()-W385</f>
-        <v>40</v>
+        <f t="shared" ref="X385:X394" ca="1" si="64">TODAY()-W385</f>
+        <v>42</v>
       </c>
     </row>
     <row r="386" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -32256,7 +32256,7 @@
       </c>
       <c r="X386" s="4">
         <f t="shared" ca="1" si="64"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y386" s="5" t="s">
         <v>640</v>
@@ -32335,7 +32335,7 @@
       </c>
       <c r="X387" s="4">
         <f t="shared" ca="1" si="64"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y387" s="5" t="s">
         <v>640</v>
@@ -32417,7 +32417,7 @@
       </c>
       <c r="X388" s="4">
         <f t="shared" ca="1" si="64"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y388" s="5" t="s">
         <v>640</v>
@@ -32443,7 +32443,7 @@
         <v>312</v>
       </c>
       <c r="G389" s="1" t="str">
-        <f t="shared" ref="G389:G420" si="66">B389&amp;" - "&amp;C389&amp;" - "&amp;F389&amp;""</f>
+        <f t="shared" ref="G389:G394" si="66">B389&amp;" - "&amp;C389&amp;" - "&amp;F389&amp;""</f>
         <v>LDÖ - 433 - 2U</v>
       </c>
       <c r="H389" s="2">
@@ -32496,7 +32496,7 @@
       </c>
       <c r="X389" s="4">
         <f t="shared" ca="1" si="64"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y389" s="5" t="s">
         <v>640</v>
@@ -32578,7 +32578,7 @@
       </c>
       <c r="X390" s="4">
         <f t="shared" ca="1" si="64"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y390" s="5" t="s">
         <v>640</v>
@@ -32657,7 +32657,7 @@
       </c>
       <c r="X391" s="4">
         <f t="shared" ca="1" si="64"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y391" s="5" t="s">
         <v>640</v>
@@ -32739,7 +32739,7 @@
       </c>
       <c r="X392" s="4">
         <f t="shared" ca="1" si="64"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y392" s="5" t="s">
         <v>640</v>
@@ -32818,13 +32818,13 @@
       </c>
       <c r="X393" s="4">
         <f t="shared" ca="1" si="64"/>
-        <v>-156</v>
+        <v>-154</v>
       </c>
       <c r="Y393" s="5" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>167</v>
       </c>
@@ -32887,7 +32887,7 @@
       </c>
       <c r="X394" s="4">
         <f t="shared" ca="1" si="64"/>
-        <v>-354</v>
+        <v>-352</v>
       </c>
     </row>
     <row r="395" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -32958,7 +32958,7 @@
       </c>
       <c r="X395" s="4">
         <f t="shared" ref="X395:X449" ca="1" si="71">TODAY()-W395</f>
-        <v>-222</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="396" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -33031,10 +33031,10 @@
       </c>
       <c r="X396" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -33106,7 +33106,7 @@
       </c>
       <c r="X397" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -33177,7 +33177,7 @@
       </c>
       <c r="X398" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-153</v>
+        <v>-151</v>
       </c>
     </row>
     <row r="399" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -33248,7 +33248,7 @@
       </c>
       <c r="X399" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-153</v>
+        <v>-151</v>
       </c>
     </row>
     <row r="400" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -33319,7 +33319,7 @@
       </c>
       <c r="X400" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-153</v>
+        <v>-151</v>
       </c>
     </row>
     <row r="401" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -33395,7 +33395,7 @@
       </c>
       <c r="X401" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="402" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -33463,7 +33463,7 @@
       </c>
       <c r="X402" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-155</v>
+        <v>-153</v>
       </c>
       <c r="Y402" s="7" t="s">
         <v>627</v>
@@ -33534,7 +33534,7 @@
       </c>
       <c r="X403" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-155</v>
+        <v>-153</v>
       </c>
       <c r="Y403" s="7" t="s">
         <v>627</v>
@@ -33615,7 +33615,7 @@
       </c>
       <c r="X404" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Y404" s="5" t="s">
         <v>613</v>
@@ -33692,7 +33692,7 @@
       </c>
       <c r="X405" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-205</v>
+        <v>-203</v>
       </c>
       <c r="Y405" s="5" t="s">
         <v>613</v>
@@ -33767,7 +33767,7 @@
       </c>
       <c r="X406" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-196</v>
+        <v>-194</v>
       </c>
     </row>
     <row r="407" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -33846,7 +33846,7 @@
       </c>
       <c r="X407" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y407" s="5" t="s">
         <v>641</v>
@@ -33925,7 +33925,7 @@
       </c>
       <c r="X408" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-172</v>
+        <v>-170</v>
       </c>
       <c r="Y408" s="5" t="s">
         <v>641</v>
@@ -34007,7 +34007,7 @@
       </c>
       <c r="X409" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y409" s="5" t="s">
         <v>641</v>
@@ -34086,7 +34086,7 @@
       </c>
       <c r="X410" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-172</v>
+        <v>-170</v>
       </c>
       <c r="Y410" s="5" t="s">
         <v>641</v>
@@ -34165,7 +34165,7 @@
       </c>
       <c r="X411" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="412" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -34241,7 +34241,7 @@
       </c>
       <c r="X412" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="413" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -34320,7 +34320,7 @@
       </c>
       <c r="X413" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y413" s="5" t="s">
         <v>640</v>
@@ -34399,7 +34399,7 @@
       </c>
       <c r="X414" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-172</v>
+        <v>-170</v>
       </c>
       <c r="Y414" s="5" t="s">
         <v>640</v>
@@ -34481,7 +34481,7 @@
       </c>
       <c r="X415" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y415" s="5" t="s">
         <v>640</v>
@@ -34560,7 +34560,7 @@
       </c>
       <c r="X416" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-172</v>
+        <v>-170</v>
       </c>
       <c r="Y416" s="5" t="s">
         <v>640</v>
@@ -34642,7 +34642,7 @@
       </c>
       <c r="X417" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y417" s="5" t="s">
         <v>640</v>
@@ -34721,7 +34721,7 @@
       </c>
       <c r="X418" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-172</v>
+        <v>-170</v>
       </c>
       <c r="Y418" s="5" t="s">
         <v>640</v>
@@ -34805,7 +34805,7 @@
       </c>
       <c r="X419" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y419" s="5" t="s">
         <v>640</v>
@@ -34886,7 +34886,7 @@
       </c>
       <c r="X420" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-172</v>
+        <v>-170</v>
       </c>
       <c r="Y420" s="5" t="s">
         <v>640</v>
@@ -34968,7 +34968,7 @@
       </c>
       <c r="X421" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y421" s="5" t="s">
         <v>640</v>
@@ -35047,7 +35047,7 @@
       </c>
       <c r="X422" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-172</v>
+        <v>-170</v>
       </c>
       <c r="Y422" s="5" t="s">
         <v>640</v>
@@ -35129,7 +35129,7 @@
       </c>
       <c r="X423" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y423" s="5" t="s">
         <v>640</v>
@@ -35208,7 +35208,7 @@
       </c>
       <c r="X424" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-172</v>
+        <v>-170</v>
       </c>
       <c r="Y424" s="5" t="s">
         <v>640</v>
@@ -35283,7 +35283,7 @@
       </c>
       <c r="X425" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-170</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="426" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -35361,7 +35361,7 @@
       </c>
       <c r="X426" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="427" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -35435,7 +35435,7 @@
       </c>
       <c r="X427" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-205</v>
+        <v>-203</v>
       </c>
     </row>
     <row r="428" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -35511,7 +35511,7 @@
       </c>
       <c r="X428" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="429" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -35581,7 +35581,7 @@
       </c>
       <c r="X429" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-168</v>
+        <v>-166</v>
       </c>
     </row>
     <row r="430" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -35658,7 +35658,7 @@
       </c>
       <c r="X430" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="431" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -35733,7 +35733,7 @@
       </c>
       <c r="X431" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-168</v>
+        <v>-166</v>
       </c>
     </row>
     <row r="432" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -35808,7 +35808,7 @@
       </c>
       <c r="X432" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="433" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -35884,7 +35884,7 @@
       </c>
       <c r="X433" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="434" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -35960,7 +35960,7 @@
       </c>
       <c r="X434" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="435" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -36036,7 +36036,7 @@
       </c>
       <c r="X435" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="436" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -36112,7 +36112,7 @@
       </c>
       <c r="X436" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="437" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -36188,7 +36188,7 @@
       </c>
       <c r="X437" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="438" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -36264,7 +36264,7 @@
       </c>
       <c r="X438" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="439" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -36330,7 +36330,7 @@
       </c>
       <c r="X439" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-170</v>
+        <v>-168</v>
       </c>
       <c r="Y439" s="5" t="s">
         <v>625</v>
@@ -36399,7 +36399,7 @@
       </c>
       <c r="X440" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-170</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="441" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -36475,7 +36475,7 @@
       </c>
       <c r="X441" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="442" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -36551,7 +36551,7 @@
       </c>
       <c r="X442" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="443" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -36627,7 +36627,7 @@
       </c>
       <c r="X443" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="444" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -36703,7 +36703,7 @@
       </c>
       <c r="X444" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="445" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -36782,7 +36782,7 @@
       </c>
       <c r="X445" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y445" s="5" t="s">
         <v>640</v>
@@ -36861,7 +36861,7 @@
       </c>
       <c r="X446" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y446" s="5" t="s">
         <v>640</v>
@@ -36943,7 +36943,7 @@
       </c>
       <c r="X447" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y447" s="5" t="s">
         <v>640</v>
@@ -37022,7 +37022,7 @@
       </c>
       <c r="X448" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y448" s="5" t="s">
         <v>640</v>
@@ -37104,7 +37104,7 @@
       </c>
       <c r="X449" s="4">
         <f t="shared" ca="1" si="71"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y449" s="5" t="s">
         <v>640</v>
@@ -37183,7 +37183,7 @@
       </c>
       <c r="X450" s="4">
         <f t="shared" ref="X450:X513" ca="1" si="80">TODAY()-W450</f>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y450" s="5" t="s">
         <v>640</v>
@@ -37265,7 +37265,7 @@
       </c>
       <c r="X451" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y451" s="5" t="s">
         <v>640</v>
@@ -37344,7 +37344,7 @@
       </c>
       <c r="X452" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y452" s="5" t="s">
         <v>640</v>
@@ -37429,7 +37429,7 @@
       </c>
       <c r="X453" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y453" s="5" t="s">
         <v>640</v>
@@ -37508,7 +37508,7 @@
       </c>
       <c r="X454" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-171</v>
+        <v>-169</v>
       </c>
       <c r="Y454" s="5" t="s">
         <v>640</v>
@@ -37587,7 +37587,7 @@
       </c>
       <c r="X455" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="456" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -37661,7 +37661,7 @@
       </c>
       <c r="X456" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -37735,7 +37735,7 @@
       </c>
       <c r="X457" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -37810,7 +37810,7 @@
       </c>
       <c r="X458" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-203</v>
+        <v>-201</v>
       </c>
     </row>
     <row r="459" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -37888,7 +37888,7 @@
       </c>
       <c r="X459" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="460" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -37962,7 +37962,7 @@
       </c>
       <c r="X460" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-168</v>
+        <v>-166</v>
       </c>
     </row>
     <row r="461" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -38031,7 +38031,7 @@
       </c>
       <c r="X461" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-170</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="462" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -38097,7 +38097,7 @@
       </c>
       <c r="X462" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-170</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="463" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -38173,7 +38173,7 @@
       </c>
       <c r="X463" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y463" s="5" t="s">
         <v>613</v>
@@ -38252,7 +38252,7 @@
       </c>
       <c r="X464" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="465" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -38331,7 +38331,7 @@
       </c>
       <c r="X465" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="466" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -38409,7 +38409,7 @@
       </c>
       <c r="X466" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="467" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -38483,7 +38483,7 @@
       </c>
       <c r="X467" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-174</v>
+        <v>-172</v>
       </c>
     </row>
     <row r="468" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -38561,7 +38561,7 @@
       </c>
       <c r="X468" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="469" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -38635,7 +38635,7 @@
       </c>
       <c r="X469" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-174</v>
+        <v>-172</v>
       </c>
     </row>
     <row r="470" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -38711,7 +38711,7 @@
       </c>
       <c r="X470" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="471" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -38790,7 +38790,7 @@
       </c>
       <c r="X471" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Y471" s="5" t="s">
         <v>653</v>
@@ -38869,7 +38869,7 @@
       </c>
       <c r="X472" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-174</v>
+        <v>-172</v>
       </c>
       <c r="Y472" s="5" t="s">
         <v>653</v>
@@ -38950,7 +38950,7 @@
       </c>
       <c r="X473" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Y473" s="5" t="s">
         <v>653</v>
@@ -39027,7 +39027,7 @@
       </c>
       <c r="X474" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-174</v>
+        <v>-172</v>
       </c>
       <c r="Y474" s="5" t="s">
         <v>653</v>
@@ -39109,7 +39109,7 @@
       </c>
       <c r="X475" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y475" s="5" t="s">
         <v>653</v>
@@ -39188,7 +39188,7 @@
       </c>
       <c r="X476" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-174</v>
+        <v>-172</v>
       </c>
       <c r="Y476" s="5" t="s">
         <v>653</v>
@@ -39270,7 +39270,7 @@
       </c>
       <c r="X477" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y477" s="5" t="s">
         <v>653</v>
@@ -39349,7 +39349,7 @@
       </c>
       <c r="X478" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-165</v>
+        <v>-163</v>
       </c>
       <c r="Y478" s="5" t="s">
         <v>653</v>
@@ -39431,7 +39431,7 @@
       </c>
       <c r="X479" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y479" s="5" t="s">
         <v>653</v>
@@ -39510,7 +39510,7 @@
       </c>
       <c r="X480" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-167</v>
+        <v>-165</v>
       </c>
       <c r="Y480" s="5" t="s">
         <v>653</v>
@@ -39592,7 +39592,7 @@
       </c>
       <c r="X481" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y481" s="5" t="s">
         <v>653</v>
@@ -39671,7 +39671,7 @@
       </c>
       <c r="X482" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-167</v>
+        <v>-165</v>
       </c>
       <c r="Y482" s="5" t="s">
         <v>653</v>
@@ -39744,7 +39744,7 @@
       </c>
       <c r="X483" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-111</v>
+        <v>-109</v>
       </c>
     </row>
     <row r="484" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -39814,7 +39814,7 @@
       </c>
       <c r="X484" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-111</v>
+        <v>-109</v>
       </c>
     </row>
     <row r="485" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -39890,7 +39890,7 @@
       </c>
       <c r="X485" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="486" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -39966,7 +39966,7 @@
       </c>
       <c r="X486" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="487" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -40042,7 +40042,7 @@
       </c>
       <c r="X487" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="488" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -40118,7 +40118,7 @@
       </c>
       <c r="X488" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="489" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -40191,7 +40191,7 @@
       </c>
       <c r="X489" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-48</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="490" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -40264,7 +40264,7 @@
       </c>
       <c r="X490" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-48</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="491" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -40337,7 +40337,7 @@
       </c>
       <c r="X491" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-57</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="492" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -40407,7 +40407,7 @@
       </c>
       <c r="X492" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-140</v>
+        <v>-138</v>
       </c>
     </row>
     <row r="493" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -40485,7 +40485,7 @@
       </c>
       <c r="X493" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="494" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -40559,7 +40559,7 @@
       </c>
       <c r="X494" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-55</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="495" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -40633,7 +40633,7 @@
       </c>
       <c r="X495" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-160</v>
+        <v>-158</v>
       </c>
     </row>
     <row r="496" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -40703,7 +40703,7 @@
       </c>
       <c r="X496" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-140</v>
+        <v>-138</v>
       </c>
     </row>
     <row r="497" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -40773,7 +40773,7 @@
       </c>
       <c r="X497" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-150</v>
+        <v>-148</v>
       </c>
     </row>
     <row r="498" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -40846,7 +40846,7 @@
       </c>
       <c r="X498" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-46</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="499" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -40922,7 +40922,7 @@
       </c>
       <c r="X499" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-55</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="500" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -40995,7 +40995,7 @@
       </c>
       <c r="X500" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-56</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="501" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -41071,7 +41071,7 @@
       </c>
       <c r="X501" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="502" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -41141,7 +41141,7 @@
       </c>
       <c r="X502" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-150</v>
+        <v>-148</v>
       </c>
     </row>
     <row r="503" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -41214,7 +41214,7 @@
       </c>
       <c r="X503" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-58</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="504" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -41290,7 +41290,7 @@
       </c>
       <c r="X504" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="505" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -41366,7 +41366,7 @@
       </c>
       <c r="X505" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="506" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -41442,7 +41442,7 @@
       </c>
       <c r="X506" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="507" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -41508,7 +41508,7 @@
       </c>
       <c r="X507" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-220</v>
+        <v>-218</v>
       </c>
     </row>
     <row r="508" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -41578,7 +41578,7 @@
       </c>
       <c r="X508" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-162</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="509" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -41651,7 +41651,7 @@
       </c>
       <c r="X509" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-42</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="510" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -41727,7 +41727,7 @@
       </c>
       <c r="X510" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="511" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -41800,7 +41800,7 @@
       </c>
       <c r="X511" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-42</v>
+        <v>-40</v>
       </c>
       <c r="Y511" s="5" t="s">
         <v>628</v>
@@ -41876,7 +41876,7 @@
       </c>
       <c r="X512" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>-147</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="513" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -41952,7 +41952,7 @@
       </c>
       <c r="X513" s="4">
         <f t="shared" ca="1" si="80"/>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="514" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -42030,7 +42030,7 @@
       </c>
       <c r="X514" s="4">
         <f t="shared" ref="X514:X577" ca="1" si="91">TODAY()-W514</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y514" s="5" t="s">
         <v>676</v>
@@ -42110,7 +42110,7 @@
       </c>
       <c r="X515" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-182</v>
+        <v>-180</v>
       </c>
       <c r="Y515" s="5" t="s">
         <v>676</v>
@@ -42186,7 +42186,7 @@
       </c>
       <c r="X516" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y516" s="5" t="s">
         <v>675</v>
@@ -42262,7 +42262,7 @@
       </c>
       <c r="X517" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-147</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="518" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -42335,7 +42335,7 @@
       </c>
       <c r="X518" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-70</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="519" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -42411,7 +42411,7 @@
       </c>
       <c r="X519" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y519" s="5" t="s">
         <v>647</v>
@@ -42490,7 +42490,7 @@
       </c>
       <c r="X520" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y520" s="5" t="s">
         <v>647</v>
@@ -42569,7 +42569,7 @@
       </c>
       <c r="X521" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="522" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -42650,7 +42650,7 @@
       </c>
       <c r="X522" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y522" s="5" t="s">
         <v>674</v>
@@ -42730,7 +42730,7 @@
       </c>
       <c r="X523" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-182</v>
+        <v>-180</v>
       </c>
       <c r="Y523" s="5" t="s">
         <v>674</v>
@@ -42805,7 +42805,7 @@
       </c>
       <c r="X524" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="Y524" s="5" t="s">
         <v>629</v>
@@ -42881,7 +42881,7 @@
       </c>
       <c r="X525" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-162</v>
+        <v>-160</v>
       </c>
       <c r="Y525" s="5" t="s">
         <v>613</v>
@@ -42957,7 +42957,7 @@
       </c>
       <c r="X526" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-42</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="527" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -43033,7 +43033,7 @@
       </c>
       <c r="X527" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="528" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -43102,7 +43102,7 @@
       </c>
       <c r="X528" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-238</v>
+        <v>-236</v>
       </c>
       <c r="Y528" s="7" t="s">
         <v>630</v>
@@ -43186,7 +43186,7 @@
       </c>
       <c r="X529" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="530" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -43263,7 +43263,7 @@
       </c>
       <c r="X530" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-183</v>
+        <v>-181</v>
       </c>
     </row>
     <row r="531" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -43339,7 +43339,7 @@
       </c>
       <c r="X531" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="532" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -43412,7 +43412,7 @@
       </c>
       <c r="X532" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-42</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="533" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -43485,7 +43485,7 @@
       </c>
       <c r="X533" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-42</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="534" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -43558,7 +43558,7 @@
       </c>
       <c r="X534" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-43</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="535" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -43634,7 +43634,7 @@
       </c>
       <c r="X535" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-42</v>
+        <v>-40</v>
       </c>
       <c r="Y535" s="7" t="s">
         <v>631</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="X536" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="537" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -43789,7 +43789,7 @@
       </c>
       <c r="X537" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-183</v>
+        <v>-181</v>
       </c>
     </row>
     <row r="538" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -43865,7 +43865,7 @@
       </c>
       <c r="X538" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="539" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -43941,7 +43941,7 @@
       </c>
       <c r="X539" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="540" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -44010,7 +44010,7 @@
       </c>
       <c r="X540" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="541" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -44083,7 +44083,7 @@
       </c>
       <c r="X541" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-42</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="542" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -44159,7 +44159,7 @@
       </c>
       <c r="X542" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="543" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -44234,7 +44234,7 @@
       </c>
       <c r="X543" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-43</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="544" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -44308,7 +44308,7 @@
       </c>
       <c r="X544" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-183</v>
+        <v>-181</v>
       </c>
     </row>
     <row r="545" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -44384,7 +44384,7 @@
       </c>
       <c r="X545" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="546" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -44457,7 +44457,7 @@
       </c>
       <c r="X546" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-144</v>
+        <v>-142</v>
       </c>
     </row>
     <row r="547" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -44523,7 +44523,7 @@
       </c>
       <c r="X547" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-145</v>
+        <v>-143</v>
       </c>
     </row>
     <row r="548" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -44596,7 +44596,7 @@
       </c>
       <c r="X548" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-147</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="549" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -44669,7 +44669,7 @@
       </c>
       <c r="X549" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-147</v>
+        <v>-145</v>
       </c>
       <c r="Z549" s="5" t="s">
         <v>692</v>
@@ -44744,7 +44744,7 @@
       </c>
       <c r="X550" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Y550" s="5" t="s">
         <v>632</v>
@@ -44820,7 +44820,7 @@
       </c>
       <c r="X551" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-147</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="552" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -44893,7 +44893,7 @@
       </c>
       <c r="X552" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-147</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="553" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -44966,7 +44966,7 @@
       </c>
       <c r="X553" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-146</v>
+        <v>-144</v>
       </c>
     </row>
     <row r="554" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -45039,7 +45039,7 @@
       </c>
       <c r="X554" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-146</v>
+        <v>-144</v>
       </c>
     </row>
     <row r="555" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -45112,7 +45112,7 @@
       </c>
       <c r="X555" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-144</v>
+        <v>-142</v>
       </c>
     </row>
     <row r="556" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -45182,7 +45182,7 @@
       </c>
       <c r="X556" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-146</v>
+        <v>-144</v>
       </c>
     </row>
     <row r="557" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -45255,7 +45255,7 @@
       </c>
       <c r="X557" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-144</v>
+        <v>-142</v>
       </c>
     </row>
     <row r="558" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -45325,7 +45325,7 @@
       </c>
       <c r="X558" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-144</v>
+        <v>-142</v>
       </c>
     </row>
     <row r="559" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -45398,7 +45398,7 @@
       </c>
       <c r="X559" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-162</v>
+        <v>-160</v>
       </c>
       <c r="Y559" s="5" t="s">
         <v>613</v>
@@ -45473,7 +45473,7 @@
       </c>
       <c r="X560" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Y560" s="5" t="s">
         <v>634</v>
@@ -45542,7 +45542,7 @@
       </c>
       <c r="X561" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-168</v>
+        <v>-166</v>
       </c>
     </row>
     <row r="562" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -45611,7 +45611,7 @@
       </c>
       <c r="X562" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-182</v>
+        <v>-180</v>
       </c>
       <c r="Y562" s="5" t="s">
         <v>637</v>
@@ -45687,7 +45687,7 @@
       </c>
       <c r="X563" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-41</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="564" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -45753,7 +45753,7 @@
       </c>
       <c r="X564" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-208</v>
+        <v>-206</v>
       </c>
     </row>
     <row r="565" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -45826,7 +45826,7 @@
       </c>
       <c r="X565" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-41</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="566" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -45899,7 +45899,7 @@
       </c>
       <c r="X566" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-179</v>
+        <v>-177</v>
       </c>
       <c r="Y566" s="5" t="s">
         <v>613</v>
@@ -45983,7 +45983,7 @@
       </c>
       <c r="X567" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="568" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -46060,7 +46060,7 @@
       </c>
       <c r="X568" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-188</v>
+        <v>-186</v>
       </c>
     </row>
     <row r="569" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -46137,7 +46137,7 @@
       </c>
       <c r="X569" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="570" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -46212,7 +46212,7 @@
       </c>
       <c r="X570" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-188</v>
+        <v>-186</v>
       </c>
     </row>
     <row r="571" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -46289,7 +46289,7 @@
       </c>
       <c r="X571" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y571" s="5" t="s">
         <v>613</v>
@@ -46367,7 +46367,7 @@
       </c>
       <c r="X572" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-189</v>
+        <v>-187</v>
       </c>
       <c r="Y572" s="5" t="s">
         <v>613</v>
@@ -46443,7 +46443,7 @@
       </c>
       <c r="X573" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-188</v>
+        <v>-186</v>
       </c>
       <c r="Y573" s="5" t="s">
         <v>651</v>
@@ -46519,7 +46519,7 @@
       </c>
       <c r="X574" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y574" s="5" t="s">
         <v>633</v>
@@ -46592,7 +46592,7 @@
       </c>
       <c r="X575" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-188</v>
+        <v>-186</v>
       </c>
       <c r="Y575" s="5" t="s">
         <v>633</v>
@@ -46668,7 +46668,7 @@
       </c>
       <c r="X576" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>-12</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="577" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -46737,7 +46737,7 @@
       </c>
       <c r="X577" s="4">
         <f t="shared" ca="1" si="91"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="578" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -46806,7 +46806,7 @@
       </c>
       <c r="X578" s="4">
         <f t="shared" ref="X578:X641" ca="1" si="100">TODAY()-W578</f>
-        <v>-46</v>
+        <v>-44</v>
       </c>
       <c r="Y578" s="5" t="s">
         <v>635</v>
@@ -46885,7 +46885,7 @@
       </c>
       <c r="X579" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="580" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -46958,7 +46958,7 @@
       </c>
       <c r="X580" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-48</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="581" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -47031,7 +47031,7 @@
       </c>
       <c r="X581" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-48</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="582" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -47104,7 +47104,7 @@
       </c>
       <c r="X582" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-57</v>
+        <v>-55</v>
       </c>
       <c r="Z582" s="5" t="s">
         <v>688</v>
@@ -47180,7 +47180,7 @@
       </c>
       <c r="X583" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-57</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="584" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -47253,7 +47253,7 @@
       </c>
       <c r="X584" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-57</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="585" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -47329,7 +47329,7 @@
       </c>
       <c r="X585" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="586" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -47402,7 +47402,7 @@
       </c>
       <c r="X586" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-57</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="587" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -47478,7 +47478,7 @@
       </c>
       <c r="X587" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-45</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="588" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -47551,7 +47551,7 @@
       </c>
       <c r="X588" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-45</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="589" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -47617,7 +47617,7 @@
       </c>
       <c r="X589" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-210</v>
+        <v>-208</v>
       </c>
     </row>
     <row r="590" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -47693,7 +47693,7 @@
       </c>
       <c r="X590" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="591" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -47766,7 +47766,7 @@
       </c>
       <c r="X591" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-45</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="592" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -47842,7 +47842,7 @@
       </c>
       <c r="X592" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="593" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -47915,7 +47915,7 @@
       </c>
       <c r="X593" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-45</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="594" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -47988,7 +47988,7 @@
       </c>
       <c r="X594" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-346</v>
+        <v>-344</v>
       </c>
     </row>
     <row r="595" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -48069,7 +48069,7 @@
       </c>
       <c r="X595" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="596" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -48147,7 +48147,7 @@
       </c>
       <c r="X596" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-165</v>
+        <v>-163</v>
       </c>
     </row>
     <row r="597" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -48223,7 +48223,7 @@
       </c>
       <c r="X597" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="598" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -48296,7 +48296,7 @@
       </c>
       <c r="X598" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-45</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="599" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -48369,7 +48369,7 @@
       </c>
       <c r="X599" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-190</v>
+        <v>-188</v>
       </c>
     </row>
     <row r="600" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -48445,7 +48445,7 @@
       </c>
       <c r="X600" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y600" s="5" t="s">
         <v>633</v>
@@ -48521,7 +48521,7 @@
       </c>
       <c r="X601" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-190</v>
+        <v>-188</v>
       </c>
     </row>
     <row r="602" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -48597,7 +48597,7 @@
       </c>
       <c r="X602" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y602" s="5" t="s">
         <v>633</v>
@@ -48670,7 +48670,7 @@
       </c>
       <c r="X603" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-191</v>
+        <v>-189</v>
       </c>
       <c r="Y603" s="5" t="s">
         <v>633</v>
@@ -48746,7 +48746,7 @@
       </c>
       <c r="X604" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-191</v>
+        <v>-189</v>
       </c>
     </row>
     <row r="605" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -48816,7 +48816,7 @@
       </c>
       <c r="X605" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-191</v>
+        <v>-189</v>
       </c>
       <c r="Y605" s="5" t="s">
         <v>633</v>
@@ -48892,7 +48892,7 @@
       </c>
       <c r="X606" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-191</v>
+        <v>-189</v>
       </c>
     </row>
     <row r="607" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -48968,7 +48968,7 @@
       </c>
       <c r="X607" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="608" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -49044,7 +49044,7 @@
       </c>
       <c r="X608" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="609" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -49120,7 +49120,7 @@
       </c>
       <c r="X609" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y609" s="5" t="s">
         <v>633</v>
@@ -49195,7 +49195,7 @@
       </c>
       <c r="X610" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="611" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -49271,7 +49271,7 @@
       </c>
       <c r="X611" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y611" s="5" t="s">
         <v>650</v>
@@ -49343,7 +49343,7 @@
       </c>
       <c r="X612" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="613" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -49420,7 +49420,7 @@
       </c>
       <c r="X613" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y613" s="5" t="s">
         <v>613</v>
@@ -49498,7 +49498,7 @@
       </c>
       <c r="X614" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-165</v>
+        <v>-163</v>
       </c>
       <c r="Y614" s="5" t="s">
         <v>613</v>
@@ -49577,7 +49577,7 @@
       </c>
       <c r="X615" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y615" s="5" t="s">
         <v>613</v>
@@ -49656,7 +49656,7 @@
       </c>
       <c r="X616" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y616" s="5" t="s">
         <v>633</v>
@@ -49735,7 +49735,7 @@
       </c>
       <c r="X617" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y617" s="5" t="s">
         <v>633</v>
@@ -49814,7 +49814,7 @@
       </c>
       <c r="X618" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y618" s="5" t="s">
         <v>633</v>
@@ -49893,7 +49893,7 @@
       </c>
       <c r="X619" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y619" s="5" t="s">
         <v>613</v>
@@ -49972,7 +49972,7 @@
       </c>
       <c r="X620" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y620" s="5" t="s">
         <v>613</v>
@@ -50051,7 +50051,7 @@
       </c>
       <c r="X621" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y621" s="5" t="s">
         <v>613</v>
@@ -50130,7 +50130,7 @@
       </c>
       <c r="X622" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y622" s="5" t="s">
         <v>633</v>
@@ -50209,7 +50209,7 @@
       </c>
       <c r="X623" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y623" s="5" t="s">
         <v>633</v>
@@ -50288,7 +50288,7 @@
       </c>
       <c r="X624" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y624" s="5" t="s">
         <v>613</v>
@@ -50360,7 +50360,7 @@
       </c>
       <c r="X625" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-210</v>
+        <v>-208</v>
       </c>
     </row>
     <row r="626" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -50429,7 +50429,7 @@
       </c>
       <c r="X626" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y626" s="5" t="s">
         <v>645</v>
@@ -50501,7 +50501,7 @@
       </c>
       <c r="X627" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y627" s="5" t="s">
         <v>645</v>
@@ -50573,7 +50573,7 @@
       </c>
       <c r="X628" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y628" s="5" t="s">
         <v>645</v>
@@ -50652,7 +50652,7 @@
       </c>
       <c r="X629" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y629" s="5" t="s">
         <v>613</v>
@@ -50731,7 +50731,7 @@
       </c>
       <c r="X630" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y630" s="5" t="s">
         <v>613</v>
@@ -50809,7 +50809,7 @@
       </c>
       <c r="X631" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y631" s="5" t="s">
         <v>645</v>
@@ -50884,7 +50884,7 @@
       </c>
       <c r="X632" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y632" s="5" t="s">
         <v>645</v>
@@ -50959,7 +50959,7 @@
       </c>
       <c r="X633" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y633" s="5" t="s">
         <v>645</v>
@@ -51032,7 +51032,7 @@
       </c>
       <c r="X634" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-186</v>
+        <v>-184</v>
       </c>
     </row>
     <row r="635" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -51110,7 +51110,7 @@
       </c>
       <c r="X635" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z635" s="7"/>
     </row>
@@ -51185,7 +51185,7 @@
       </c>
       <c r="X636" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-199</v>
+        <v>-197</v>
       </c>
     </row>
     <row r="637" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -51255,7 +51255,7 @@
       </c>
       <c r="X637" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-197</v>
+        <v>-195</v>
       </c>
     </row>
     <row r="638" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -51328,7 +51328,7 @@
       </c>
       <c r="X638" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-198</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="639" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -51404,7 +51404,7 @@
       </c>
       <c r="X639" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="640" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -51474,7 +51474,7 @@
       </c>
       <c r="X640" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>-198</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="641" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -51550,7 +51550,7 @@
       </c>
       <c r="X641" s="4">
         <f t="shared" ca="1" si="100"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="642" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -51620,7 +51620,7 @@
       </c>
       <c r="X642" s="4">
         <f t="shared" ref="X642:X705" ca="1" si="111">TODAY()-W642</f>
-        <v>-186</v>
+        <v>-184</v>
       </c>
     </row>
     <row r="643" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -51690,7 +51690,7 @@
       </c>
       <c r="X643" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-197</v>
+        <v>-195</v>
       </c>
     </row>
     <row r="644" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -51769,7 +51769,7 @@
       </c>
       <c r="X644" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y644" s="5" t="s">
         <v>656</v>
@@ -51847,7 +51847,7 @@
       </c>
       <c r="X645" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-199</v>
+        <v>-197</v>
       </c>
       <c r="Y645" s="5" t="s">
         <v>658</v>
@@ -51926,7 +51926,7 @@
       </c>
       <c r="X646" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="647" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -52002,7 +52002,7 @@
       </c>
       <c r="X647" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-43</v>
+        <v>-41</v>
       </c>
       <c r="Y647" s="5" t="s">
         <v>666</v>
@@ -52081,7 +52081,7 @@
       </c>
       <c r="X648" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="649" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -52151,7 +52151,7 @@
       </c>
       <c r="X649" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-184</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="650" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -52230,7 +52230,7 @@
       </c>
       <c r="X650" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y650" s="5" t="s">
         <v>643</v>
@@ -52309,7 +52309,7 @@
       </c>
       <c r="X651" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-44</v>
+        <v>-42</v>
       </c>
       <c r="Y651" s="5" t="s">
         <v>667</v>
@@ -52393,7 +52393,7 @@
       </c>
       <c r="X652" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y652" s="5" t="s">
         <v>643</v>
@@ -52473,7 +52473,7 @@
       </c>
       <c r="X653" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-199</v>
+        <v>-197</v>
       </c>
       <c r="Y653" s="5" t="s">
         <v>643</v>
@@ -52552,7 +52552,7 @@
       </c>
       <c r="X654" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-43</v>
+        <v>-41</v>
       </c>
       <c r="Y654" s="8" t="s">
         <v>668</v>
@@ -52631,7 +52631,7 @@
       </c>
       <c r="X655" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="656" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -52707,7 +52707,7 @@
       </c>
       <c r="X656" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="657" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -52783,7 +52783,7 @@
       </c>
       <c r="X657" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="658" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -52859,7 +52859,7 @@
       </c>
       <c r="X658" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="659" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -52937,7 +52937,7 @@
       </c>
       <c r="X659" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="660" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -53011,7 +53011,7 @@
       </c>
       <c r="X660" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-185</v>
+        <v>-183</v>
       </c>
     </row>
     <row r="661" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -53087,7 +53087,7 @@
       </c>
       <c r="X661" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="662" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -53165,7 +53165,7 @@
       </c>
       <c r="X662" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="663" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -53239,7 +53239,7 @@
       </c>
       <c r="X663" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-185</v>
+        <v>-183</v>
       </c>
     </row>
     <row r="664" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -53315,7 +53315,7 @@
       </c>
       <c r="X664" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="665" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -53393,7 +53393,7 @@
       </c>
       <c r="X665" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="666" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -53467,7 +53467,7 @@
       </c>
       <c r="X666" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-185</v>
+        <v>-183</v>
       </c>
     </row>
     <row r="667" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -53543,7 +53543,7 @@
       </c>
       <c r="X667" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="668" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -53609,7 +53609,7 @@
       </c>
       <c r="X668" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-212</v>
+        <v>-210</v>
       </c>
     </row>
     <row r="669" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -53675,7 +53675,7 @@
       </c>
       <c r="X669" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-203</v>
+        <v>-201</v>
       </c>
     </row>
     <row r="670" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -53745,7 +53745,7 @@
       </c>
       <c r="X670" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-192</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="671" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -53821,7 +53821,7 @@
       </c>
       <c r="X671" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="672" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -53894,7 +53894,7 @@
       </c>
       <c r="X672" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-44</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="673" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -53970,7 +53970,7 @@
       </c>
       <c r="X673" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z673" s="5" t="s">
         <v>702</v>
@@ -54046,7 +54046,7 @@
       </c>
       <c r="X674" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-44</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="675" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -54122,7 +54122,7 @@
       </c>
       <c r="X675" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z675" s="5" t="s">
         <v>689</v>
@@ -54201,7 +54201,7 @@
       </c>
       <c r="X676" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="677" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -54277,7 +54277,7 @@
       </c>
       <c r="X677" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="678" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -54353,7 +54353,7 @@
       </c>
       <c r="X678" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="679" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -54429,7 +54429,7 @@
       </c>
       <c r="X679" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="680" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -54502,7 +54502,7 @@
       </c>
       <c r="X680" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-43</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="681" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -54575,7 +54575,7 @@
       </c>
       <c r="X681" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-44</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="682" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -54648,7 +54648,7 @@
       </c>
       <c r="X682" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-44</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="683" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -54724,7 +54724,7 @@
       </c>
       <c r="X683" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="684" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -54800,7 +54800,7 @@
       </c>
       <c r="X684" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="685" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -54873,10 +54873,10 @@
       </c>
       <c r="X685" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-43</v>
-      </c>
-    </row>
-    <row r="686" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="686" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>685</v>
       </c>
@@ -54950,10 +54950,10 @@
       </c>
       <c r="X686" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="687" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="687" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>686</v>
       </c>
@@ -55013,7 +55013,7 @@
         <v>608</v>
       </c>
       <c r="T687" s="24">
-        <v>45764</v>
+        <v>45886</v>
       </c>
       <c r="V687" s="20">
         <f t="shared" si="109"/>
@@ -55025,7 +55025,7 @@
       </c>
       <c r="X687" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-199</v>
+        <v>-197</v>
       </c>
     </row>
     <row r="688" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -55098,7 +55098,7 @@
       </c>
       <c r="X688" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-199</v>
+        <v>-197</v>
       </c>
     </row>
     <row r="689" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -55168,7 +55168,7 @@
       </c>
       <c r="X689" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-198</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="690" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -55238,7 +55238,7 @@
       </c>
       <c r="X690" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-184</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="691" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -55308,7 +55308,7 @@
       </c>
       <c r="X691" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-198</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="692" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -55378,7 +55378,7 @@
       </c>
       <c r="X692" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-198</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="693" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -55448,7 +55448,7 @@
       </c>
       <c r="X693" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-198</v>
+        <v>-196</v>
       </c>
       <c r="Y693" s="5" t="s">
         <v>665</v>
@@ -55524,7 +55524,7 @@
       </c>
       <c r="X694" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-198</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="695" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -55594,7 +55594,7 @@
       </c>
       <c r="X695" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-184</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="696" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -55667,7 +55667,7 @@
       </c>
       <c r="X696" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-198</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="697" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -55737,7 +55737,7 @@
       </c>
       <c r="X697" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-184</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="698" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -55813,7 +55813,7 @@
       </c>
       <c r="X698" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="699" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -55889,7 +55889,7 @@
       </c>
       <c r="X699" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="700" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -55965,7 +55965,7 @@
       </c>
       <c r="X700" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="701" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -56034,7 +56034,7 @@
       </c>
       <c r="X701" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="702" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -56107,7 +56107,7 @@
       </c>
       <c r="X702" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="703" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -56180,7 +56180,7 @@
       </c>
       <c r="X703" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-186</v>
+        <v>-184</v>
       </c>
     </row>
     <row r="704" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -56253,7 +56253,7 @@
       </c>
       <c r="X704" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-186</v>
+        <v>-184</v>
       </c>
     </row>
     <row r="705" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -56323,7 +56323,7 @@
       </c>
       <c r="X705" s="4">
         <f t="shared" ca="1" si="111"/>
-        <v>-186</v>
+        <v>-184</v>
       </c>
       <c r="Y705" s="5" t="s">
         <v>633</v>
@@ -56396,7 +56396,7 @@
       </c>
       <c r="X706" s="4">
         <f t="shared" ref="X706:X763" ca="1" si="122">TODAY()-W706</f>
-        <v>-186</v>
+        <v>-184</v>
       </c>
       <c r="Y706" s="5" t="s">
         <v>633</v>
@@ -56472,7 +56472,7 @@
       </c>
       <c r="X707" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-186</v>
+        <v>-184</v>
       </c>
     </row>
     <row r="708" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -56541,7 +56541,7 @@
       </c>
       <c r="X708" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-203</v>
+        <v>-201</v>
       </c>
     </row>
     <row r="709" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -56610,7 +56610,7 @@
       </c>
       <c r="X709" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-203</v>
+        <v>-201</v>
       </c>
     </row>
     <row r="710" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -56679,7 +56679,7 @@
       </c>
       <c r="X710" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-203</v>
+        <v>-201</v>
       </c>
     </row>
     <row r="711" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -56752,7 +56752,7 @@
       </c>
       <c r="X711" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-192</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="712" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -56818,7 +56818,7 @@
       </c>
       <c r="X712" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-214</v>
+        <v>-212</v>
       </c>
     </row>
     <row r="713" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -56884,7 +56884,7 @@
       </c>
       <c r="X713" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-214</v>
+        <v>-212</v>
       </c>
     </row>
     <row r="714" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -56950,7 +56950,7 @@
       </c>
       <c r="X714" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-214</v>
+        <v>-212</v>
       </c>
     </row>
     <row r="715" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -57028,7 +57028,7 @@
       </c>
       <c r="X715" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="716" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -57102,7 +57102,7 @@
       </c>
       <c r="X716" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-186</v>
+        <v>-184</v>
       </c>
     </row>
     <row r="717" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -57168,7 +57168,7 @@
       </c>
       <c r="X717" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-214</v>
+        <v>-212</v>
       </c>
     </row>
     <row r="718" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -57234,7 +57234,7 @@
       </c>
       <c r="X718" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-214</v>
+        <v>-212</v>
       </c>
     </row>
     <row r="719" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -57303,7 +57303,7 @@
       </c>
       <c r="X719" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="720" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -57379,7 +57379,7 @@
       </c>
       <c r="X720" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y720" s="5" t="s">
         <v>613</v>
@@ -57461,7 +57461,7 @@
       </c>
       <c r="X721" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y721" s="5" t="s">
         <v>652</v>
@@ -57540,7 +57540,7 @@
       </c>
       <c r="X722" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-185</v>
+        <v>-183</v>
       </c>
       <c r="Y722" s="5" t="s">
         <v>652</v>
@@ -57621,7 +57621,7 @@
       </c>
       <c r="X723" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y723" s="5" t="s">
         <v>652</v>
@@ -57700,7 +57700,7 @@
       </c>
       <c r="X724" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-185</v>
+        <v>-183</v>
       </c>
       <c r="Y724" s="5" t="s">
         <v>652</v>
@@ -57773,7 +57773,7 @@
       </c>
       <c r="X725" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-186</v>
+        <v>-184</v>
       </c>
     </row>
     <row r="726" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -57843,7 +57843,7 @@
       </c>
       <c r="X726" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-186</v>
+        <v>-184</v>
       </c>
     </row>
     <row r="727" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -57913,7 +57913,7 @@
       </c>
       <c r="X727" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-186</v>
+        <v>-184</v>
       </c>
     </row>
     <row r="728" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -57992,7 +57992,7 @@
       </c>
       <c r="X728" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y728" s="5" t="s">
         <v>652</v>
@@ -58071,7 +58071,7 @@
       </c>
       <c r="X729" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-185</v>
+        <v>-183</v>
       </c>
       <c r="Y729" s="5" t="s">
         <v>652</v>
@@ -58153,7 +58153,7 @@
       </c>
       <c r="X730" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y730" s="5" t="s">
         <v>652</v>
@@ -58232,7 +58232,7 @@
       </c>
       <c r="X731" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-185</v>
+        <v>-183</v>
       </c>
       <c r="Y731" s="5" t="s">
         <v>652</v>
@@ -58314,7 +58314,7 @@
       </c>
       <c r="X732" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y732" s="5" t="s">
         <v>652</v>
@@ -58393,7 +58393,7 @@
       </c>
       <c r="X733" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-185</v>
+        <v>-183</v>
       </c>
       <c r="Y733" s="5" t="s">
         <v>652</v>
@@ -58475,7 +58475,7 @@
       </c>
       <c r="X734" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y734" s="5" t="s">
         <v>652</v>
@@ -58554,7 +58554,7 @@
       </c>
       <c r="X735" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-185</v>
+        <v>-183</v>
       </c>
       <c r="Y735" s="5" t="s">
         <v>652</v>
@@ -58630,7 +58630,7 @@
       </c>
       <c r="X736" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-192</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="737" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -58703,7 +58703,7 @@
       </c>
       <c r="X737" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-192</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="738" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -58776,7 +58776,7 @@
       </c>
       <c r="X738" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-191</v>
+        <v>-189</v>
       </c>
       <c r="Z738" s="7"/>
     </row>
@@ -58849,7 +58849,7 @@
       </c>
       <c r="X739" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Y739" s="5" t="s">
         <v>664</v>
@@ -58922,7 +58922,7 @@
       </c>
       <c r="X740" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-184</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="741" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -58992,7 +58992,7 @@
       </c>
       <c r="X741" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-184</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="742" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -59062,7 +59062,7 @@
       </c>
       <c r="X742" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-198</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="743" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -59132,7 +59132,7 @@
       </c>
       <c r="X743" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-198</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="744" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -59205,7 +59205,7 @@
       </c>
       <c r="X744" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-184</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="745" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -59275,7 +59275,7 @@
       </c>
       <c r="X745" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-198</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="746" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -59345,7 +59345,7 @@
       </c>
       <c r="X746" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-198</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="747" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -59418,7 +59418,7 @@
       </c>
       <c r="X747" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-184</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="748" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -59488,7 +59488,7 @@
       </c>
       <c r="X748" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-184</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="749" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -59558,7 +59558,7 @@
       </c>
       <c r="X749" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-184</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="750" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -59631,7 +59631,7 @@
       </c>
       <c r="X750" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-197</v>
+        <v>-195</v>
       </c>
     </row>
     <row r="751" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -59701,7 +59701,7 @@
       </c>
       <c r="X751" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-197</v>
+        <v>-195</v>
       </c>
     </row>
     <row r="752" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -59771,7 +59771,7 @@
       </c>
       <c r="X752" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-196</v>
+        <v>-194</v>
       </c>
     </row>
     <row r="753" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -59841,7 +59841,7 @@
       </c>
       <c r="X753" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-196</v>
+        <v>-194</v>
       </c>
       <c r="Y753" s="5" t="s">
         <v>633</v>
@@ -59917,7 +59917,7 @@
       </c>
       <c r="X754" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-196</v>
+        <v>-194</v>
       </c>
     </row>
     <row r="755" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -59991,7 +59991,7 @@
       </c>
       <c r="X755" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -60066,7 +60066,7 @@
       </c>
       <c r="X756" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-196</v>
+        <v>-194</v>
       </c>
       <c r="Z756" s="5" t="s">
         <v>702</v>
@@ -60144,7 +60144,7 @@
       </c>
       <c r="X757" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-198</v>
+        <v>-196</v>
       </c>
       <c r="Y757" s="5" t="s">
         <v>656</v>
@@ -60222,7 +60222,7 @@
       </c>
       <c r="X758" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-198</v>
+        <v>-196</v>
       </c>
       <c r="Y758" s="5" t="s">
         <v>656</v>
@@ -60300,7 +60300,7 @@
       </c>
       <c r="X759" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-198</v>
+        <v>-196</v>
       </c>
       <c r="Y759" s="5" t="s">
         <v>643</v>
@@ -60378,7 +60378,7 @@
       </c>
       <c r="X760" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-198</v>
+        <v>-196</v>
       </c>
       <c r="Y760" s="5" t="s">
         <v>643</v>
@@ -60454,7 +60454,7 @@
       </c>
       <c r="X761" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-170</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="762" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -60526,7 +60526,7 @@
       </c>
       <c r="X762" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-100</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="763" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -60598,7 +60598,7 @@
       </c>
       <c r="X763" s="4">
         <f t="shared" ca="1" si="122"/>
-        <v>-100</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="764" spans="1:26" hidden="1" x14ac:dyDescent="0.25"/>
@@ -60644,14 +60644,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Y790" xr:uid="{049BB223-A6B5-4D3E-ACA7-4531434772CF}">
-    <filterColumn colId="1">
+    <filterColumn colId="2">
       <filters>
-        <filter val="LDM"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="V"/>
+        <filter val="913"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A65:Y394">
